--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value375.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value375.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.387622637909661</v>
+        <v>1.061319947242737</v>
       </c>
       <c r="B1">
-        <v>2.384283711246159</v>
+        <v>3.684934139251709</v>
       </c>
       <c r="C1">
-        <v>2.545955847771581</v>
+        <v>3.250450849533081</v>
       </c>
       <c r="D1">
-        <v>1.757244038260375</v>
+        <v>2.02033519744873</v>
       </c>
       <c r="E1">
-        <v>0.7343405212429837</v>
+        <v>1.159409284591675</v>
       </c>
     </row>
   </sheetData>
